--- a/trunk/Tools/Production price.xlsx
+++ b/trunk/Tools/Production price.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="0" windowWidth="25040" windowHeight="16920" tabRatio="500"/>
+    <workbookView xWindow="3855" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -163,54 +163,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -236,11 +196,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -251,10 +208,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -269,6 +225,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -596,217 +557,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>50000</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>30000</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>25000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>18000</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2000000</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1500000</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2400000</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1800000</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1200000</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>2400000</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="9" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>3</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>80000</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>110000</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <v>120000</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="3">
         <v>60000</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="3">
         <v>81000</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="9">
         <v>96000</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="3">
         <v>90000</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="3">
         <v>150000</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="9">
         <v>180000</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>100000</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>125000</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="10">
         <v>135000</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="4">
         <v>45000</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="4">
         <v>75000</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="10">
         <v>90000</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="4">
         <v>90000</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="4">
         <v>150000</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="10">
         <v>180000</v>
       </c>
     </row>

--- a/trunk/Tools/Production price.xlsx
+++ b/trunk/Tools/Production price.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Area</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t># of plants</t>
+  </si>
+  <si>
+    <t>Maximal capacity</t>
+  </si>
+  <si>
+    <t>Building cost</t>
   </si>
 </sst>
 </file>
@@ -555,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J18"/>
+  <dimension ref="A2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A9" sqref="A9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -566,14 +572,34 @@
     <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -583,8 +609,38 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -597,8 +653,38 @@
       <c r="D5" s="2">
         <v>12000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>80000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>110000</v>
+      </c>
+      <c r="J5" s="9">
+        <v>120000</v>
+      </c>
+      <c r="K5" s="3">
+        <v>60000</v>
+      </c>
+      <c r="L5" s="3">
+        <v>81000</v>
+      </c>
+      <c r="M5" s="9">
+        <v>96000</v>
+      </c>
+      <c r="N5" s="3">
+        <v>90000</v>
+      </c>
+      <c r="O5" s="3">
+        <v>150000</v>
+      </c>
+      <c r="P5" s="9">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -611,172 +697,91 @@
       <c r="D6" s="2">
         <v>9000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>100000</v>
+      </c>
+      <c r="I6" s="4">
+        <v>125000</v>
+      </c>
+      <c r="J6" s="10">
+        <v>135000</v>
+      </c>
+      <c r="K6" s="4">
+        <v>45000</v>
+      </c>
+      <c r="L6" s="4">
+        <v>75000</v>
+      </c>
+      <c r="M6" s="10">
+        <v>90000</v>
+      </c>
+      <c r="N6" s="4">
+        <v>90000</v>
+      </c>
+      <c r="O6" s="4">
+        <v>150000</v>
+      </c>
+      <c r="P6" s="10">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>2000000</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>1500000</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2400000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1800000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1200000</v>
       </c>
       <c r="D10" s="2">
         <v>2400000</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3">
-        <v>80000</v>
-      </c>
-      <c r="C17" s="3">
-        <v>110000</v>
-      </c>
-      <c r="D17" s="9">
-        <v>120000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>60000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>81000</v>
-      </c>
-      <c r="G17" s="9">
-        <v>96000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>90000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>150000</v>
-      </c>
-      <c r="J17" s="9">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4">
-        <v>100000</v>
-      </c>
-      <c r="C18" s="4">
-        <v>125000</v>
-      </c>
-      <c r="D18" s="10">
-        <v>135000</v>
-      </c>
-      <c r="E18" s="4">
-        <v>45000</v>
-      </c>
-      <c r="F18" s="4">
-        <v>75000</v>
-      </c>
-      <c r="G18" s="10">
-        <v>90000</v>
-      </c>
-      <c r="H18" s="4">
-        <v>90000</v>
-      </c>
-      <c r="I18" s="4">
-        <v>150000</v>
-      </c>
-      <c r="J18" s="10">
-        <v>180000</v>
+      <c r="B11" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2400000</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/trunk/Tools/Production price.xlsx
+++ b/trunk/Tools/Production price.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="3860" yWindow="0" windowWidth="20740" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reference" sheetId="1" r:id="rId1"/>
+    <sheet name="Brazil PC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Area</t>
   </si>
@@ -49,6 +50,45 @@
   </si>
   <si>
     <t>Building cost</t>
+  </si>
+  <si>
+    <t>Area Brazil</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Max units</t>
+  </si>
+  <si>
+    <t>Patent paid</t>
+  </si>
+  <si>
+    <t>R&amp;D paid</t>
+  </si>
+  <si>
+    <t>R&amp;D cost</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Production cost</t>
+  </si>
+  <si>
+    <t>Break-even price</t>
+  </si>
+  <si>
+    <t>Factory depreciation</t>
+  </si>
+  <si>
+    <t>R&amp;D deprecication percentage</t>
+  </si>
+  <si>
+    <t>Net plant brazil</t>
   </si>
 </sst>
 </file>
@@ -191,10 +231,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -218,14 +260,16 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -561,23 +605,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P11"/>
+  <dimension ref="A2:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E11"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
@@ -599,7 +644,7 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -684,7 +729,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -728,13 +773,13 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -742,7 +787,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -759,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -774,6 +819,22 @@
       </c>
       <c r="E11" s="7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +845,132 @@
     <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5">
+        <f>Reference!N6+'Brazil PC'!O6</f>
+        <v>90000</v>
+      </c>
+      <c r="D5">
+        <f>30/100*Reference!G14</f>
+        <v>900000</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>140</v>
+      </c>
+      <c r="G5">
+        <f>Reference!D6</f>
+        <v>9000</v>
+      </c>
+      <c r="H5">
+        <f>F5+C5+D5</f>
+        <v>990140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6">
+        <f>Reference!N6+'Brazil PC'!O6</f>
+        <v>90000</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <f>E6/100*Reference!B14</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>Reference!D6</f>
+        <v>9000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H7" si="0">F6+C6</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7">
+        <f>Reference!N6+'Brazil PC'!O6</f>
+        <v>90000</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <f>E7/100*Reference!B14</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>Reference!D6</f>
+        <v>9000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
